--- a/xlsx/country_comparison/variables_wealth_tax_support_by_country_weight_vote.xlsx
+++ b/xlsx/country_comparison/variables_wealth_tax_support_by_country_weight_vote.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">along</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -425,13 +428,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>72.6765959589018</v>
+        <v>73.6240217716714</v>
       </c>
       <c r="C2" t="n">
-        <v>71.1874177340699</v>
+        <v>72.2478735481761</v>
       </c>
       <c r="D2" t="n">
-        <v>74.1657741837337</v>
+        <v>75.0001699951667</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -595,13 +598,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>84.0970246035313</v>
+        <v>77.5621580226714</v>
       </c>
       <c r="C12" t="n">
-        <v>77.443574521812</v>
+        <v>72.8446210132784</v>
       </c>
       <c r="D12" t="n">
-        <v>90.7504746852507</v>
+        <v>82.2796950320645</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -612,13 +615,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>65.649945608931</v>
+        <v>84.0970246035313</v>
       </c>
       <c r="C13" t="n">
-        <v>62.6541718611356</v>
+        <v>80.0478220275675</v>
       </c>
       <c r="D13" t="n">
-        <v>68.6457193567265</v>
+        <v>88.1462271794951</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -626,220 +629,220 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>67.7572977792038</v>
+        <v>65.649945608931</v>
       </c>
       <c r="C14" t="n">
-        <v>66.197204865599</v>
+        <v>62.6541718611356</v>
       </c>
       <c r="D14" t="n">
-        <v>69.3173906928086</v>
+        <v>68.6457193567265</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>70.0319801047299</v>
+        <v>68.8024933782735</v>
       </c>
       <c r="C15" t="n">
-        <v>67.8307115960692</v>
+        <v>67.3566889333627</v>
       </c>
       <c r="D15" t="n">
-        <v>72.2332486133906</v>
+        <v>70.2482978231843</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>73.7993305340746</v>
+        <v>70.0319801047299</v>
       </c>
       <c r="C16" t="n">
-        <v>68.7654436022794</v>
+        <v>67.8307115960692</v>
       </c>
       <c r="D16" t="n">
-        <v>78.8332174658698</v>
+        <v>72.2332486133906</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="n">
-        <v>71.954543138091</v>
+        <v>73.7993305340746</v>
       </c>
       <c r="C17" t="n">
-        <v>67.3385870282996</v>
+        <v>68.7654436022794</v>
       </c>
       <c r="D17" t="n">
-        <v>76.5704992478825</v>
+        <v>78.8332174658698</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="n">
-        <v>76.5290626262376</v>
+        <v>71.954543138091</v>
       </c>
       <c r="C18" t="n">
-        <v>70.7279443078947</v>
+        <v>67.3385870282996</v>
       </c>
       <c r="D18" t="n">
-        <v>82.3301809445805</v>
+        <v>76.5704992478825</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="n">
-        <v>66.2344913257599</v>
+        <v>76.5290626262376</v>
       </c>
       <c r="C19" t="n">
-        <v>59.0888759669899</v>
+        <v>70.7279443078947</v>
       </c>
       <c r="D19" t="n">
-        <v>73.38010668453</v>
+        <v>82.3301809445805</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" t="n">
-        <v>67.709616852932</v>
+        <v>66.2344913257599</v>
       </c>
       <c r="C20" t="n">
-        <v>61.2943205836559</v>
+        <v>59.0888759669899</v>
       </c>
       <c r="D20" t="n">
-        <v>74.1249131222081</v>
+        <v>73.38010668453</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>69.7268038304646</v>
+        <v>67.709616852932</v>
       </c>
       <c r="C21" t="n">
-        <v>64.2888926997195</v>
+        <v>61.2943205836559</v>
       </c>
       <c r="D21" t="n">
-        <v>75.1647149612096</v>
+        <v>74.1249131222081</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>57.0899704000207</v>
+        <v>69.7268038304646</v>
       </c>
       <c r="C22" t="n">
-        <v>49.1512966318626</v>
+        <v>64.2888926997195</v>
       </c>
       <c r="D22" t="n">
-        <v>65.0286441681789</v>
+        <v>75.1647149612096</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" t="n">
-        <v>63.7762985277505</v>
+        <v>57.0899704000207</v>
       </c>
       <c r="C23" t="n">
-        <v>60.1423468882754</v>
+        <v>49.1512966318626</v>
       </c>
       <c r="D23" t="n">
-        <v>67.4102501672256</v>
+        <v>65.0286441681789</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="n">
-        <v>82.9596895936391</v>
+        <v>63.7762985277505</v>
       </c>
       <c r="C24" t="n">
-        <v>76.2518221186772</v>
+        <v>60.1423468882754</v>
       </c>
       <c r="D24" t="n">
-        <v>89.6675570686009</v>
+        <v>67.4102501672256</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>64.7803281282082</v>
+        <v>71.1820232905296</v>
       </c>
       <c r="C25" t="n">
-        <v>61.8036820757821</v>
+        <v>65.9670283638893</v>
       </c>
       <c r="D25" t="n">
-        <v>67.7569741806344</v>
+        <v>76.3970182171699</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B26" t="n">
-        <v>65.8971048789876</v>
+        <v>82.9596895936391</v>
       </c>
       <c r="C26" t="n">
-        <v>64.3221109454541</v>
+        <v>78.8773693048814</v>
       </c>
       <c r="D26" t="n">
-        <v>67.4720988125212</v>
+        <v>87.0420098823967</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -847,16 +850,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n">
-        <v>69.5531875173258</v>
+        <v>64.7803281282082</v>
       </c>
       <c r="C27" t="n">
-        <v>67.3387245840609</v>
+        <v>61.8036820757821</v>
       </c>
       <c r="D27" t="n">
-        <v>71.7676504505906</v>
+        <v>67.7569741806344</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -864,172 +867,223 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B28" t="n">
-        <v>69.2675928730754</v>
+        <v>67.4246396509155</v>
       </c>
       <c r="C28" t="n">
-        <v>63.4075883081442</v>
+        <v>65.9686496120296</v>
       </c>
       <c r="D28" t="n">
-        <v>75.1275974380067</v>
+        <v>68.8806296898014</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" t="n">
-        <v>68.5116706036794</v>
+        <v>69.5531875173258</v>
       </c>
       <c r="C29" t="n">
-        <v>63.5252922099851</v>
+        <v>67.3387245840609</v>
       </c>
       <c r="D29" t="n">
-        <v>73.4980489973737</v>
+        <v>71.7676504505906</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" t="n">
-        <v>78.9080588152204</v>
+        <v>69.2675928730754</v>
       </c>
       <c r="C30" t="n">
-        <v>74.2882314440082</v>
+        <v>63.4075883081442</v>
       </c>
       <c r="D30" t="n">
-        <v>83.5278861864326</v>
+        <v>75.1275974380067</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31" t="n">
-        <v>53.7932601345037</v>
+        <v>68.5116706036794</v>
       </c>
       <c r="C31" t="n">
-        <v>46.0752224630335</v>
+        <v>63.5252922099851</v>
       </c>
       <c r="D31" t="n">
-        <v>61.5112978059738</v>
+        <v>73.4980489973737</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32" t="n">
-        <v>73.8167804849821</v>
+        <v>78.9080588152204</v>
       </c>
       <c r="C32" t="n">
-        <v>67.5733680367153</v>
+        <v>74.2882314440082</v>
       </c>
       <c r="D32" t="n">
-        <v>80.0601929332488</v>
+        <v>83.5278861864326</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" t="n">
-        <v>70.3790419741579</v>
+        <v>53.7932601345037</v>
       </c>
       <c r="C33" t="n">
-        <v>64.9439856785242</v>
+        <v>46.0752224630335</v>
       </c>
       <c r="D33" t="n">
-        <v>75.8140982697915</v>
+        <v>61.5112978059738</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B34" t="n">
-        <v>63.996117685235</v>
+        <v>73.8167804849821</v>
       </c>
       <c r="C34" t="n">
-        <v>56.5586902660495</v>
+        <v>67.5733680367153</v>
       </c>
       <c r="D34" t="n">
-        <v>71.4335451044204</v>
+        <v>80.0601929332488</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35" t="n">
-        <v>58.6747863816527</v>
+        <v>70.3790419741579</v>
       </c>
       <c r="C35" t="n">
-        <v>54.8708159529806</v>
+        <v>64.9439856785242</v>
       </c>
       <c r="D35" t="n">
-        <v>62.4787568103248</v>
+        <v>75.8140982697915</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" t="n">
-        <v>82.1857770240346</v>
+        <v>63.996117685235</v>
       </c>
       <c r="C36" t="n">
-        <v>75.6712103143344</v>
+        <v>56.5586902660495</v>
       </c>
       <c r="D36" t="n">
-        <v>88.7003437337348</v>
+        <v>71.4335451044204</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="n">
+        <v>58.6747863816527</v>
+      </c>
+      <c r="C37" t="n">
+        <v>54.8708159529806</v>
+      </c>
+      <c r="D37" t="n">
+        <v>62.4787568103248</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="n">
+        <v>74.659042052013</v>
+      </c>
+      <c r="C38" t="n">
+        <v>69.4998418840951</v>
+      </c>
+      <c r="D38" t="n">
+        <v>79.818242219931</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
         <v>17</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B39" t="n">
+        <v>82.1857770240346</v>
+      </c>
+      <c r="C39" t="n">
+        <v>78.2210970492523</v>
+      </c>
+      <c r="D39" t="n">
+        <v>86.1504569988168</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="n">
         <v>62.4690690810083</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C40" t="n">
         <v>59.5299292963272</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D40" t="n">
         <v>65.4082088656895</v>
       </c>
-      <c r="E37" t="s">
-        <v>19</v>
+      <c r="E40" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/variables_wealth_tax_support_by_country_weight_vote.xlsx
+++ b/xlsx/country_comparison/variables_wealth_tax_support_by_country_weight_vote.xlsx
@@ -428,13 +428,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>73.6240217716714</v>
+        <v>73.7001285719821</v>
       </c>
       <c r="C2" t="n">
-        <v>72.2478735481761</v>
+        <v>72.3336424210523</v>
       </c>
       <c r="D2" t="n">
-        <v>75.0001699951667</v>
+        <v>75.0666147229119</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -445,13 +445,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>76.2397215151358</v>
+        <v>76.239726224251</v>
       </c>
       <c r="C3" t="n">
-        <v>74.201347744337</v>
+        <v>74.2016212947435</v>
       </c>
       <c r="D3" t="n">
-        <v>78.2780952859346</v>
+        <v>78.2778311537585</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -462,13 +462,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>79.2218384911282</v>
+        <v>79.2192155789382</v>
       </c>
       <c r="C4" t="n">
-        <v>74.3253306314459</v>
+        <v>74.3248868209307</v>
       </c>
       <c r="D4" t="n">
-        <v>84.1183463508105</v>
+        <v>84.1135443369457</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -479,13 +479,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>76.5144216996025</v>
+        <v>76.5089904149901</v>
       </c>
       <c r="C5" t="n">
-        <v>72.059792960113</v>
+        <v>72.0562147796462</v>
       </c>
       <c r="D5" t="n">
-        <v>80.9690504390919</v>
+        <v>80.9617660503339</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -564,13 +564,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>70.6128902307044</v>
+        <v>70.6179655561316</v>
       </c>
       <c r="C10" t="n">
-        <v>63.4796640449875</v>
+        <v>63.4813668790681</v>
       </c>
       <c r="D10" t="n">
-        <v>77.7461164164212</v>
+        <v>77.754564233195</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -581,13 +581,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>71.927282176675</v>
+        <v>71.9315392433974</v>
       </c>
       <c r="C11" t="n">
-        <v>68.5530072852656</v>
+        <v>68.5573648738596</v>
       </c>
       <c r="D11" t="n">
-        <v>75.3015570680844</v>
+        <v>75.3057136129352</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -598,13 +598,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>77.5621580226714</v>
+        <v>77.8385029514733</v>
       </c>
       <c r="C12" t="n">
-        <v>72.8446210132784</v>
+        <v>73.4720101468262</v>
       </c>
       <c r="D12" t="n">
-        <v>82.2796950320645</v>
+        <v>82.2049957561204</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -632,13 +632,13 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>65.649945608931</v>
+        <v>65.6756128159912</v>
       </c>
       <c r="C14" t="n">
-        <v>62.6541718611356</v>
+        <v>62.6818047274839</v>
       </c>
       <c r="D14" t="n">
-        <v>68.6457193567265</v>
+        <v>68.6694209044986</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -649,13 +649,13 @@
         <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>68.8024933782735</v>
+        <v>68.7293820559067</v>
       </c>
       <c r="C15" t="n">
-        <v>67.3566889333627</v>
+        <v>67.2928692548832</v>
       </c>
       <c r="D15" t="n">
-        <v>70.2482978231843</v>
+        <v>70.1658948569303</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
@@ -666,13 +666,13 @@
         <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>70.0319801047299</v>
+        <v>70.0349515464357</v>
       </c>
       <c r="C16" t="n">
-        <v>67.8307115960692</v>
+        <v>67.8340958209815</v>
       </c>
       <c r="D16" t="n">
-        <v>72.2332486133906</v>
+        <v>72.23580727189</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
@@ -683,13 +683,13 @@
         <v>8</v>
       </c>
       <c r="B17" t="n">
-        <v>73.7993305340746</v>
+        <v>73.8011174594306</v>
       </c>
       <c r="C17" t="n">
-        <v>68.7654436022794</v>
+        <v>68.7699381998794</v>
       </c>
       <c r="D17" t="n">
-        <v>78.8332174658698</v>
+        <v>78.8322967189819</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -700,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B18" t="n">
-        <v>71.954543138091</v>
+        <v>71.9545300671651</v>
       </c>
       <c r="C18" t="n">
-        <v>67.3385870282996</v>
+        <v>67.3409803626745</v>
       </c>
       <c r="D18" t="n">
-        <v>76.5704992478825</v>
+        <v>76.5680797716556</v>
       </c>
       <c r="E18" t="s">
         <v>19</v>
@@ -785,13 +785,13 @@
         <v>14</v>
       </c>
       <c r="B23" t="n">
-        <v>57.0899704000207</v>
+        <v>57.093643885943</v>
       </c>
       <c r="C23" t="n">
-        <v>49.1512966318626</v>
+        <v>49.1509715456626</v>
       </c>
       <c r="D23" t="n">
-        <v>65.0286441681789</v>
+        <v>65.0363162262233</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
@@ -802,13 +802,13 @@
         <v>15</v>
       </c>
       <c r="B24" t="n">
-        <v>63.7762985277505</v>
+        <v>63.7863454580277</v>
       </c>
       <c r="C24" t="n">
-        <v>60.1423468882754</v>
+        <v>60.1526597008331</v>
       </c>
       <c r="D24" t="n">
-        <v>67.4102501672256</v>
+        <v>67.4200312152222</v>
       </c>
       <c r="E24" t="s">
         <v>19</v>
@@ -819,13 +819,13 @@
         <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>71.1820232905296</v>
+        <v>69.8931601175901</v>
       </c>
       <c r="C25" t="n">
-        <v>65.9670283638893</v>
+        <v>65.0588305973776</v>
       </c>
       <c r="D25" t="n">
-        <v>76.3970182171699</v>
+        <v>74.7274896378027</v>
       </c>
       <c r="E25" t="s">
         <v>19</v>
@@ -853,13 +853,13 @@
         <v>18</v>
       </c>
       <c r="B27" t="n">
-        <v>64.7803281282082</v>
+        <v>64.7875368806995</v>
       </c>
       <c r="C27" t="n">
-        <v>61.8036820757821</v>
+        <v>61.8104609935632</v>
       </c>
       <c r="D27" t="n">
-        <v>67.7569741806344</v>
+        <v>67.7646127678359</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -870,13 +870,13 @@
         <v>5</v>
       </c>
       <c r="B28" t="n">
-        <v>67.4246396509155</v>
+        <v>67.4426950982622</v>
       </c>
       <c r="C28" t="n">
-        <v>65.9686496120296</v>
+        <v>65.9938812820719</v>
       </c>
       <c r="D28" t="n">
-        <v>68.8806296898014</v>
+        <v>68.8915089144525</v>
       </c>
       <c r="E28" t="s">
         <v>20</v>
@@ -887,13 +887,13 @@
         <v>7</v>
       </c>
       <c r="B29" t="n">
-        <v>69.5531875173258</v>
+        <v>69.5524559847153</v>
       </c>
       <c r="C29" t="n">
-        <v>67.3387245840609</v>
+        <v>67.3382475538882</v>
       </c>
       <c r="D29" t="n">
-        <v>71.7676504505906</v>
+        <v>71.7666644155423</v>
       </c>
       <c r="E29" t="s">
         <v>20</v>
@@ -904,13 +904,13 @@
         <v>8</v>
       </c>
       <c r="B30" t="n">
-        <v>69.2675928730754</v>
+        <v>69.2641485591769</v>
       </c>
       <c r="C30" t="n">
-        <v>63.4075883081442</v>
+        <v>63.4068241328164</v>
       </c>
       <c r="D30" t="n">
-        <v>75.1275974380067</v>
+        <v>75.1214729855374</v>
       </c>
       <c r="E30" t="s">
         <v>20</v>
@@ -921,13 +921,13 @@
         <v>9</v>
       </c>
       <c r="B31" t="n">
-        <v>68.5116706036794</v>
+        <v>68.5089970578903</v>
       </c>
       <c r="C31" t="n">
-        <v>63.5252922099851</v>
+        <v>63.5248877895078</v>
       </c>
       <c r="D31" t="n">
-        <v>73.4980489973737</v>
+        <v>73.4931063262728</v>
       </c>
       <c r="E31" t="s">
         <v>20</v>
@@ -1006,13 +1006,13 @@
         <v>14</v>
       </c>
       <c r="B36" t="n">
-        <v>63.996117685235</v>
+        <v>63.9965718289014</v>
       </c>
       <c r="C36" t="n">
-        <v>56.5586902660495</v>
+        <v>56.5557068223802</v>
       </c>
       <c r="D36" t="n">
-        <v>71.4335451044204</v>
+        <v>71.4374368354227</v>
       </c>
       <c r="E36" t="s">
         <v>20</v>
@@ -1023,13 +1023,13 @@
         <v>15</v>
       </c>
       <c r="B37" t="n">
-        <v>58.6747863816527</v>
+        <v>58.6717978225169</v>
       </c>
       <c r="C37" t="n">
-        <v>54.8708159529806</v>
+        <v>54.8678003845487</v>
       </c>
       <c r="D37" t="n">
-        <v>62.4787568103248</v>
+        <v>62.4757952604851</v>
       </c>
       <c r="E37" t="s">
         <v>20</v>
@@ -1040,13 +1040,13 @@
         <v>16</v>
       </c>
       <c r="B38" t="n">
-        <v>74.659042052013</v>
+        <v>74.0232378134785</v>
       </c>
       <c r="C38" t="n">
-        <v>69.4998418840951</v>
+        <v>69.1540095101055</v>
       </c>
       <c r="D38" t="n">
-        <v>79.818242219931</v>
+        <v>78.8924661168515</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
@@ -1074,13 +1074,13 @@
         <v>18</v>
       </c>
       <c r="B40" t="n">
-        <v>62.4690690810083</v>
+        <v>62.4616898045869</v>
       </c>
       <c r="C40" t="n">
-        <v>59.5299292963272</v>
+        <v>59.5216656437741</v>
       </c>
       <c r="D40" t="n">
-        <v>65.4082088656895</v>
+        <v>65.4017139653997</v>
       </c>
       <c r="E40" t="s">
         <v>20</v>

--- a/xlsx/country_comparison/variables_wealth_tax_support_by_country_weight_vote.xlsx
+++ b/xlsx/country_comparison/variables_wealth_tax_support_by_country_weight_vote.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">along</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t xml:space="preserve">Russia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
     <t xml:space="preserve">USA</t>
@@ -428,13 +425,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>73.7001285719821</v>
+        <v>73.6710361597934</v>
       </c>
       <c r="C2" t="n">
-        <v>72.3336424210523</v>
+        <v>72.3033300855294</v>
       </c>
       <c r="D2" t="n">
-        <v>75.0666147229119</v>
+        <v>75.0387422340573</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -598,13 +595,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>77.8385029514733</v>
+        <v>77.5532714938846</v>
       </c>
       <c r="C12" t="n">
-        <v>73.4720101468262</v>
+        <v>73.1395709765103</v>
       </c>
       <c r="D12" t="n">
-        <v>82.2049957561204</v>
+        <v>81.966972011259</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -615,13 +612,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>84.0970246035313</v>
+        <v>65.6756128159912</v>
       </c>
       <c r="C13" t="n">
-        <v>80.0478220275675</v>
+        <v>62.6818047274839</v>
       </c>
       <c r="D13" t="n">
-        <v>88.1462271794951</v>
+        <v>68.6694209044986</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -629,220 +626,220 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>65.6756128159912</v>
+        <v>68.7235111211832</v>
       </c>
       <c r="C14" t="n">
-        <v>62.6818047274839</v>
+        <v>67.2867144309077</v>
       </c>
       <c r="D14" t="n">
-        <v>68.6694209044986</v>
+        <v>70.1603078114586</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>68.7293820559067</v>
+        <v>70.0349515464357</v>
       </c>
       <c r="C15" t="n">
-        <v>67.2928692548832</v>
+        <v>67.8340958209815</v>
       </c>
       <c r="D15" t="n">
-        <v>70.1658948569303</v>
+        <v>72.23580727189</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" t="n">
-        <v>70.0349515464357</v>
+        <v>73.8011174594306</v>
       </c>
       <c r="C16" t="n">
-        <v>67.8340958209815</v>
+        <v>68.7699381998794</v>
       </c>
       <c r="D16" t="n">
-        <v>72.23580727189</v>
+        <v>78.8322967189819</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" t="n">
-        <v>73.8011174594306</v>
+        <v>71.9545300671651</v>
       </c>
       <c r="C17" t="n">
-        <v>68.7699381998794</v>
+        <v>67.3409803626745</v>
       </c>
       <c r="D17" t="n">
-        <v>78.8322967189819</v>
+        <v>76.5680797716556</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" t="n">
-        <v>71.9545300671651</v>
+        <v>76.5290626262376</v>
       </c>
       <c r="C18" t="n">
-        <v>67.3409803626745</v>
+        <v>70.7279443078947</v>
       </c>
       <c r="D18" t="n">
-        <v>76.5680797716556</v>
+        <v>82.3301809445805</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" t="n">
-        <v>76.5290626262376</v>
+        <v>66.2344913257599</v>
       </c>
       <c r="C19" t="n">
-        <v>70.7279443078947</v>
+        <v>59.0888759669899</v>
       </c>
       <c r="D19" t="n">
-        <v>82.3301809445805</v>
+        <v>73.38010668453</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>66.2344913257599</v>
+        <v>67.709616852932</v>
       </c>
       <c r="C20" t="n">
-        <v>59.0888759669899</v>
+        <v>61.2943205836559</v>
       </c>
       <c r="D20" t="n">
-        <v>73.38010668453</v>
+        <v>74.1249131222081</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" t="n">
-        <v>67.709616852932</v>
+        <v>69.7268038304646</v>
       </c>
       <c r="C21" t="n">
-        <v>61.2943205836559</v>
+        <v>64.2888926997195</v>
       </c>
       <c r="D21" t="n">
-        <v>74.1249131222081</v>
+        <v>75.1647149612096</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" t="n">
-        <v>69.7268038304646</v>
+        <v>57.093643885943</v>
       </c>
       <c r="C22" t="n">
-        <v>64.2888926997195</v>
+        <v>49.1509715456626</v>
       </c>
       <c r="D22" t="n">
-        <v>75.1647149612096</v>
+        <v>65.0363162262233</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" t="n">
-        <v>57.093643885943</v>
+        <v>63.7863454580277</v>
       </c>
       <c r="C23" t="n">
-        <v>49.1509715456626</v>
+        <v>60.1526597008331</v>
       </c>
       <c r="D23" t="n">
-        <v>65.0363162262233</v>
+        <v>67.4200312152222</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>63.7863454580277</v>
+        <v>69.8291634341244</v>
       </c>
       <c r="C24" t="n">
-        <v>60.1526597008331</v>
+        <v>64.9837035538317</v>
       </c>
       <c r="D24" t="n">
-        <v>67.4200312152222</v>
+        <v>74.6746233144171</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" t="n">
-        <v>69.8931601175901</v>
+        <v>64.7875368806995</v>
       </c>
       <c r="C25" t="n">
-        <v>65.0588305973776</v>
+        <v>61.8104609935632</v>
       </c>
       <c r="D25" t="n">
-        <v>74.7274896378027</v>
+        <v>67.7646127678359</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B26" t="n">
-        <v>82.9596895936391</v>
+        <v>67.4325771642063</v>
       </c>
       <c r="C26" t="n">
-        <v>78.8773693048814</v>
+        <v>65.9835497503382</v>
       </c>
       <c r="D26" t="n">
-        <v>87.0420098823967</v>
+        <v>68.8816045780744</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -850,16 +847,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B27" t="n">
-        <v>64.7875368806995</v>
+        <v>69.5524559847153</v>
       </c>
       <c r="C27" t="n">
-        <v>61.8104609935632</v>
+        <v>67.3382475538882</v>
       </c>
       <c r="D27" t="n">
-        <v>67.7646127678359</v>
+        <v>71.7666644155423</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -867,223 +864,172 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B28" t="n">
-        <v>67.4426950982622</v>
+        <v>69.2641485591769</v>
       </c>
       <c r="C28" t="n">
-        <v>65.9938812820719</v>
+        <v>63.4068241328164</v>
       </c>
       <c r="D28" t="n">
-        <v>68.8915089144525</v>
+        <v>75.1214729855374</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B29" t="n">
-        <v>69.5524559847153</v>
+        <v>68.5089970578903</v>
       </c>
       <c r="C29" t="n">
-        <v>67.3382475538882</v>
+        <v>63.5248877895078</v>
       </c>
       <c r="D29" t="n">
-        <v>71.7666644155423</v>
+        <v>73.4931063262728</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>69.2641485591769</v>
+        <v>78.9080588152204</v>
       </c>
       <c r="C30" t="n">
-        <v>63.4068241328164</v>
+        <v>74.2882314440082</v>
       </c>
       <c r="D30" t="n">
-        <v>75.1214729855374</v>
+        <v>83.5278861864326</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B31" t="n">
-        <v>68.5089970578903</v>
+        <v>53.7932601345037</v>
       </c>
       <c r="C31" t="n">
-        <v>63.5248877895078</v>
+        <v>46.0752224630335</v>
       </c>
       <c r="D31" t="n">
-        <v>73.4931063262728</v>
+        <v>61.5112978059738</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B32" t="n">
-        <v>78.9080588152204</v>
+        <v>73.8167804849821</v>
       </c>
       <c r="C32" t="n">
-        <v>74.2882314440082</v>
+        <v>67.5733680367153</v>
       </c>
       <c r="D32" t="n">
-        <v>83.5278861864326</v>
+        <v>80.0601929332488</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B33" t="n">
-        <v>53.7932601345037</v>
+        <v>70.3790419741579</v>
       </c>
       <c r="C33" t="n">
-        <v>46.0752224630335</v>
+        <v>64.9439856785242</v>
       </c>
       <c r="D33" t="n">
-        <v>61.5112978059738</v>
+        <v>75.8140982697915</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B34" t="n">
-        <v>73.8167804849821</v>
+        <v>63.9965718289014</v>
       </c>
       <c r="C34" t="n">
-        <v>67.5733680367153</v>
+        <v>56.5557068223802</v>
       </c>
       <c r="D34" t="n">
-        <v>80.0601929332488</v>
+        <v>71.4374368354227</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B35" t="n">
-        <v>70.3790419741579</v>
+        <v>58.6717978225169</v>
       </c>
       <c r="C35" t="n">
-        <v>64.9439856785242</v>
+        <v>54.8678003845487</v>
       </c>
       <c r="D35" t="n">
-        <v>75.8140982697915</v>
+        <v>62.4757952604851</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>63.9965718289014</v>
+        <v>73.9042764455841</v>
       </c>
       <c r="C36" t="n">
-        <v>56.5557068223802</v>
+        <v>69.0236003408544</v>
       </c>
       <c r="D36" t="n">
-        <v>71.4374368354227</v>
+        <v>78.7849525503137</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B37" t="n">
-        <v>58.6717978225169</v>
+        <v>62.4616898045869</v>
       </c>
       <c r="C37" t="n">
-        <v>54.8678003845487</v>
+        <v>59.5216656437741</v>
       </c>
       <c r="D37" t="n">
-        <v>62.4757952604851</v>
+        <v>65.4017139653997</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" t="n">
-        <v>74.0232378134785</v>
-      </c>
-      <c r="C38" t="n">
-        <v>69.1540095101055</v>
-      </c>
-      <c r="D38" t="n">
-        <v>78.8924661168515</v>
-      </c>
-      <c r="E38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" t="n">
-        <v>82.1857770240346</v>
-      </c>
-      <c r="C39" t="n">
-        <v>78.2210970492523</v>
-      </c>
-      <c r="D39" t="n">
-        <v>86.1504569988168</v>
-      </c>
-      <c r="E39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" t="n">
-        <v>62.4616898045869</v>
-      </c>
-      <c r="C40" t="n">
-        <v>59.5216656437741</v>
-      </c>
-      <c r="D40" t="n">
-        <v>65.4017139653997</v>
-      </c>
-      <c r="E40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/variables_wealth_tax_support_by_country_weight_vote.xlsx
+++ b/xlsx/country_comparison/variables_wealth_tax_support_by_country_weight_vote.xlsx
@@ -32,7 +32,9 @@
     <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">**Global**:&lt;br&gt;Implemented by&lt;br&gt;All other countries</t>
+    <t xml:space="preserve">**Global**: 
+Implemented by 
+All other countries</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Europe&lt;/b&gt;</t>
@@ -68,10 +70,14 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">**High-income**:&lt;br&gt;All other HICs and&lt;br&gt;not some MICs (such as China)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**International**:&lt;br&gt;Some countries (e.g. EU, UK, Brazil)&lt;br&gt;and not others (e.g. U.S., China)</t>
+    <t xml:space="preserve">**High-income**: 
+All other HICs and 
+not some MICs (such as China)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**International**: 
+Some countries (e.g. EU, UK, Brazil) 
+and not others (e.g. U.S., China)</t>
   </si>
 </sst>
 </file>
@@ -425,13 +431,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>73.6710361597934</v>
+        <v>73.6593446835017</v>
       </c>
       <c r="C2" t="n">
-        <v>72.3033300855294</v>
+        <v>72.2911397665722</v>
       </c>
       <c r="D2" t="n">
-        <v>75.0387422340573</v>
+        <v>75.0275496004312</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -595,13 +601,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>77.5532714938846</v>
+        <v>77.4373747871973</v>
       </c>
       <c r="C12" t="n">
-        <v>73.1395709765103</v>
+        <v>73.0041637008231</v>
       </c>
       <c r="D12" t="n">
-        <v>81.966972011259</v>
+        <v>81.8705858735715</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -629,13 +635,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>68.7235111211832</v>
+        <v>68.7195237359994</v>
       </c>
       <c r="C14" t="n">
-        <v>67.2867144309077</v>
+        <v>67.2821385114178</v>
       </c>
       <c r="D14" t="n">
-        <v>70.1603078114586</v>
+        <v>70.1569089605811</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -799,13 +805,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>69.8291634341244</v>
+        <v>69.7923192501879</v>
       </c>
       <c r="C24" t="n">
-        <v>64.9837035538317</v>
+        <v>64.9239512310953</v>
       </c>
       <c r="D24" t="n">
-        <v>74.6746233144171</v>
+        <v>74.6606872692806</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>

--- a/xlsx/country_comparison/variables_wealth_tax_support_by_country_weight_vote.xlsx
+++ b/xlsx/country_comparison/variables_wealth_tax_support_by_country_weight_vote.xlsx
@@ -32,9 +32,7 @@
     <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">**Global**: 
-Implemented by 
-All other countries</t>
+    <t xml:space="preserve">**Global**:&lt;br&gt;Implemented by&lt;br&gt;All other countries</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Europe&lt;/b&gt;</t>
@@ -70,14 +68,10 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">**High-income**: 
-All other HICs and 
-not some MICs (such as China)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**International**: 
-Some countries (e.g. EU, UK, Brazil) 
-and not others (e.g. U.S., China)</t>
+    <t xml:space="preserve">**High-income**:&lt;br&gt;All other HICs and&lt;br&gt;not some MICs (such as China)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**International**:&lt;br&gt;Some countries (e.g. EU, UK, Brazil)&lt;br&gt;and not others (e.g. U.S., China)</t>
   </si>
 </sst>
 </file>
@@ -431,13 +425,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>73.6593446835017</v>
+        <v>73.6710361597934</v>
       </c>
       <c r="C2" t="n">
-        <v>72.2911397665722</v>
+        <v>72.3033300855294</v>
       </c>
       <c r="D2" t="n">
-        <v>75.0275496004312</v>
+        <v>75.0387422340573</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -601,13 +595,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>77.4373747871973</v>
+        <v>77.5532714938846</v>
       </c>
       <c r="C12" t="n">
-        <v>73.0041637008231</v>
+        <v>73.1395709765103</v>
       </c>
       <c r="D12" t="n">
-        <v>81.8705858735715</v>
+        <v>81.966972011259</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -635,13 +629,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>68.7195237359994</v>
+        <v>68.7235111211832</v>
       </c>
       <c r="C14" t="n">
-        <v>67.2821385114178</v>
+        <v>67.2867144309077</v>
       </c>
       <c r="D14" t="n">
-        <v>70.1569089605811</v>
+        <v>70.1603078114586</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -805,13 +799,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>69.7923192501879</v>
+        <v>69.8291634341244</v>
       </c>
       <c r="C24" t="n">
-        <v>64.9239512310953</v>
+        <v>64.9837035538317</v>
       </c>
       <c r="D24" t="n">
-        <v>74.6606872692806</v>
+        <v>74.6746233144171</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>

--- a/xlsx/country_comparison/variables_wealth_tax_support_by_country_weight_vote.xlsx
+++ b/xlsx/country_comparison/variables_wealth_tax_support_by_country_weight_vote.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">along</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
     <t xml:space="preserve">USA</t>
@@ -612,13 +615,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>65.6756128159912</v>
+        <v>84.0970246035313</v>
       </c>
       <c r="C13" t="n">
-        <v>62.6818047274839</v>
+        <v>80.0478220275675</v>
       </c>
       <c r="D13" t="n">
-        <v>68.6694209044986</v>
+        <v>88.1462271794951</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -626,220 +629,220 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>68.7235111211832</v>
+        <v>65.6756128159912</v>
       </c>
       <c r="C14" t="n">
-        <v>67.2867144309077</v>
+        <v>62.6818047274839</v>
       </c>
       <c r="D14" t="n">
-        <v>70.1603078114586</v>
+        <v>68.6694209044986</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>70.0349515464357</v>
+        <v>68.7235111211832</v>
       </c>
       <c r="C15" t="n">
-        <v>67.8340958209815</v>
+        <v>67.2867144309077</v>
       </c>
       <c r="D15" t="n">
-        <v>72.23580727189</v>
+        <v>70.1603078114586</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>73.8011174594306</v>
+        <v>70.0349515464357</v>
       </c>
       <c r="C16" t="n">
-        <v>68.7699381998794</v>
+        <v>67.8340958209815</v>
       </c>
       <c r="D16" t="n">
-        <v>78.8322967189819</v>
+        <v>72.23580727189</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="n">
-        <v>71.9545300671651</v>
+        <v>73.8011174594306</v>
       </c>
       <c r="C17" t="n">
-        <v>67.3409803626745</v>
+        <v>68.7699381998794</v>
       </c>
       <c r="D17" t="n">
-        <v>76.5680797716556</v>
+        <v>78.8322967189819</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="n">
-        <v>76.5290626262376</v>
+        <v>71.9545300671651</v>
       </c>
       <c r="C18" t="n">
-        <v>70.7279443078947</v>
+        <v>67.3409803626745</v>
       </c>
       <c r="D18" t="n">
-        <v>82.3301809445805</v>
+        <v>76.5680797716556</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="n">
-        <v>66.2344913257599</v>
+        <v>76.5290626262376</v>
       </c>
       <c r="C19" t="n">
-        <v>59.0888759669899</v>
+        <v>70.7279443078947</v>
       </c>
       <c r="D19" t="n">
-        <v>73.38010668453</v>
+        <v>82.3301809445805</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" t="n">
-        <v>67.709616852932</v>
+        <v>66.2344913257599</v>
       </c>
       <c r="C20" t="n">
-        <v>61.2943205836559</v>
+        <v>59.0888759669899</v>
       </c>
       <c r="D20" t="n">
-        <v>74.1249131222081</v>
+        <v>73.38010668453</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>69.7268038304646</v>
+        <v>67.709616852932</v>
       </c>
       <c r="C21" t="n">
-        <v>64.2888926997195</v>
+        <v>61.2943205836559</v>
       </c>
       <c r="D21" t="n">
-        <v>75.1647149612096</v>
+        <v>74.1249131222081</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>57.093643885943</v>
+        <v>69.7268038304646</v>
       </c>
       <c r="C22" t="n">
-        <v>49.1509715456626</v>
+        <v>64.2888926997195</v>
       </c>
       <c r="D22" t="n">
-        <v>65.0363162262233</v>
+        <v>75.1647149612096</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" t="n">
-        <v>63.7863454580277</v>
+        <v>57.093643885943</v>
       </c>
       <c r="C23" t="n">
-        <v>60.1526597008331</v>
+        <v>49.1509715456626</v>
       </c>
       <c r="D23" t="n">
-        <v>67.4200312152222</v>
+        <v>65.0363162262233</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="n">
-        <v>69.8291634341244</v>
+        <v>63.7863454580277</v>
       </c>
       <c r="C24" t="n">
-        <v>64.9837035538317</v>
+        <v>60.1526597008331</v>
       </c>
       <c r="D24" t="n">
-        <v>74.6746233144171</v>
+        <v>67.4200312152222</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>64.7875368806995</v>
+        <v>69.8291634341244</v>
       </c>
       <c r="C25" t="n">
-        <v>61.8104609935632</v>
+        <v>64.9837035538317</v>
       </c>
       <c r="D25" t="n">
-        <v>67.7646127678359</v>
+        <v>74.6746233144171</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B26" t="n">
-        <v>67.4325771642063</v>
+        <v>82.9596895936391</v>
       </c>
       <c r="C26" t="n">
-        <v>65.9835497503382</v>
+        <v>78.8773693048814</v>
       </c>
       <c r="D26" t="n">
-        <v>68.8816045780744</v>
+        <v>87.0420098823967</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -847,16 +850,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n">
-        <v>69.5524559847153</v>
+        <v>64.7875368806995</v>
       </c>
       <c r="C27" t="n">
-        <v>67.3382475538882</v>
+        <v>61.8104609935632</v>
       </c>
       <c r="D27" t="n">
-        <v>71.7666644155423</v>
+        <v>67.7646127678359</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -864,172 +867,223 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B28" t="n">
-        <v>69.2641485591769</v>
+        <v>67.4325771642063</v>
       </c>
       <c r="C28" t="n">
-        <v>63.4068241328164</v>
+        <v>65.9835497503382</v>
       </c>
       <c r="D28" t="n">
-        <v>75.1214729855374</v>
+        <v>68.8816045780744</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" t="n">
-        <v>68.5089970578903</v>
+        <v>69.5524559847153</v>
       </c>
       <c r="C29" t="n">
-        <v>63.5248877895078</v>
+        <v>67.3382475538882</v>
       </c>
       <c r="D29" t="n">
-        <v>73.4931063262728</v>
+        <v>71.7666644155423</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" t="n">
-        <v>78.9080588152204</v>
+        <v>69.2641485591769</v>
       </c>
       <c r="C30" t="n">
-        <v>74.2882314440082</v>
+        <v>63.4068241328164</v>
       </c>
       <c r="D30" t="n">
-        <v>83.5278861864326</v>
+        <v>75.1214729855374</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31" t="n">
-        <v>53.7932601345037</v>
+        <v>68.5089970578903</v>
       </c>
       <c r="C31" t="n">
-        <v>46.0752224630335</v>
+        <v>63.5248877895078</v>
       </c>
       <c r="D31" t="n">
-        <v>61.5112978059738</v>
+        <v>73.4931063262728</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32" t="n">
-        <v>73.8167804849821</v>
+        <v>78.9080588152204</v>
       </c>
       <c r="C32" t="n">
-        <v>67.5733680367153</v>
+        <v>74.2882314440082</v>
       </c>
       <c r="D32" t="n">
-        <v>80.0601929332488</v>
+        <v>83.5278861864326</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" t="n">
-        <v>70.3790419741579</v>
+        <v>53.7932601345037</v>
       </c>
       <c r="C33" t="n">
-        <v>64.9439856785242</v>
+        <v>46.0752224630335</v>
       </c>
       <c r="D33" t="n">
-        <v>75.8140982697915</v>
+        <v>61.5112978059738</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B34" t="n">
-        <v>63.9965718289014</v>
+        <v>73.8167804849821</v>
       </c>
       <c r="C34" t="n">
-        <v>56.5557068223802</v>
+        <v>67.5733680367153</v>
       </c>
       <c r="D34" t="n">
-        <v>71.4374368354227</v>
+        <v>80.0601929332488</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35" t="n">
-        <v>58.6717978225169</v>
+        <v>70.3790419741579</v>
       </c>
       <c r="C35" t="n">
-        <v>54.8678003845487</v>
+        <v>64.9439856785242</v>
       </c>
       <c r="D35" t="n">
-        <v>62.4757952604851</v>
+        <v>75.8140982697915</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" t="n">
-        <v>73.9042764455841</v>
+        <v>63.9965718289014</v>
       </c>
       <c r="C36" t="n">
-        <v>69.0236003408544</v>
+        <v>56.5557068223802</v>
       </c>
       <c r="D36" t="n">
-        <v>78.7849525503137</v>
+        <v>71.4374368354227</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="n">
+        <v>58.6717978225169</v>
+      </c>
+      <c r="C37" t="n">
+        <v>54.8678003845487</v>
+      </c>
+      <c r="D37" t="n">
+        <v>62.4757952604851</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="n">
+        <v>73.9042764455841</v>
+      </c>
+      <c r="C38" t="n">
+        <v>69.0236003408544</v>
+      </c>
+      <c r="D38" t="n">
+        <v>78.7849525503137</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
         <v>17</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B39" t="n">
+        <v>82.1857770240346</v>
+      </c>
+      <c r="C39" t="n">
+        <v>78.2210970492523</v>
+      </c>
+      <c r="D39" t="n">
+        <v>86.1504569988168</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="n">
         <v>62.4616898045869</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C40" t="n">
         <v>59.5216656437741</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D40" t="n">
         <v>65.4017139653997</v>
       </c>
-      <c r="E37" t="s">
-        <v>19</v>
+      <c r="E40" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
